--- a/data/case1/18/V2_14.xlsx
+++ b/data/case1/18/V2_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999813591867</v>
+        <v>0.99999999825042629</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.9983184754177119</v>
+        <v>0.99767544249126128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.99290355988298984</v>
+        <v>0.98884576412874292</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.99478164834065486</v>
+        <v>0.99167482224131409</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.98347400235716997</v>
+        <v>0.98135394293647726</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.95639774243974363</v>
+        <v>0.95656583680300833</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.95135056543692609</v>
+        <v>0.95067909061784195</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.94436731010693209</v>
+        <v>0.94280897649427275</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.93639220028065218</v>
+        <v>0.93313230188897278</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.92933024369105088</v>
+        <v>0.92437096503852345</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.9283128220356005</v>
+        <v>0.92311409150469426</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.92663306695715741</v>
+        <v>0.9209791105009647</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.92076797747613481</v>
+        <v>0.9126284905564821</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.91906992342786031</v>
+        <v>0.90846089529060214</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.91874354030136729</v>
+        <v>0.9058692610243182</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.91889377061412425</v>
+        <v>0.90336267525205649</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.92107043259792731</v>
+        <v>0.89965461864970075</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.9199614988355912</v>
+        <v>0.89854567575415856</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99726520675987151</v>
+        <v>0.99662217206931869</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.9901480084948806</v>
+        <v>0.98950495039613018</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98874948664312035</v>
+        <v>0.98810642554132144</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98748497707102534</v>
+        <v>0.98684191425524237</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.98586926004461772</v>
+        <v>0.97714300071137039</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.97284890619621556</v>
+        <v>0.95555101942132925</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.96639198562420336</v>
+        <v>0.94909389241395792</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.95420420543537054</v>
+        <v>0.9545807252101578</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.95139563262102644</v>
+        <v>0.95206318416673796</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.93960563635430727</v>
+        <v>0.94153148982732893</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.93152460172835716</v>
+        <v>0.93439278729436159</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.92845361426870632</v>
+        <v>0.93183035131619918</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.91570269078249389</v>
+        <v>0.93456775331157682</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.91223749302275181</v>
+        <v>0.93651733148702543</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.90934604229136851</v>
+        <v>0.93599730124377523</v>
       </c>
     </row>
   </sheetData>
